--- a/www/IndicatorsPerCountry/Singapore_GDPperCapita_TerritorialRef_1965_2012_CCode_702.xlsx
+++ b/www/IndicatorsPerCountry/Singapore_GDPperCapita_TerritorialRef_1965_2012_CCode_702.xlsx
@@ -369,13 +369,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Singapore_GDPperCapita_TerritorialRef_1965_2012_CCode_702.xlsx
+++ b/www/IndicatorsPerCountry/Singapore_GDPperCapita_TerritorialRef_1965_2012_CCode_702.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="127">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,310 +36,328 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>682</t>
+    <t>1423</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1598</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>1614</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>1744</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>1734</t>
-  </si>
-  <si>
-    <t>1666</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>1573</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>1721</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1938</t>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2297</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2166</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>2515</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>2094</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>2244</t>
   </si>
   <si>
     <t>1932</t>
   </si>
   <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>2571</t>
-  </si>
-  <si>
-    <t>2752</t>
-  </si>
-  <si>
-    <t>2269</t>
-  </si>
-  <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>1770</t>
-  </si>
-  <si>
-    <t>2369</t>
-  </si>
-  <si>
-    <t>2237</t>
-  </si>
-  <si>
-    <t>2756</t>
-  </si>
-  <si>
-    <t>2662</t>
-  </si>
-  <si>
-    <t>2975</t>
-  </si>
-  <si>
-    <t>2439</t>
-  </si>
-  <si>
-    <t>2803</t>
-  </si>
-  <si>
-    <t>2615</t>
-  </si>
-  <si>
-    <t>2587</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2445</t>
-  </si>
-  <si>
-    <t>2471</t>
-  </si>
-  <si>
-    <t>2291</t>
-  </si>
-  <si>
-    <t>2677</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2422</t>
-  </si>
-  <si>
-    <t>2520</t>
-  </si>
-  <si>
-    <t>2701</t>
-  </si>
-  <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>2667</t>
-  </si>
-  <si>
-    <t>2891</t>
-  </si>
-  <si>
-    <t>3163</t>
-  </si>
-  <si>
-    <t>3540</t>
-  </si>
-  <si>
-    <t>3965</t>
-  </si>
-  <si>
-    <t>4439</t>
-  </si>
-  <si>
-    <t>4904</t>
-  </si>
-  <si>
-    <t>5460</t>
-  </si>
-  <si>
-    <t>5977</t>
-  </si>
-  <si>
-    <t>6276</t>
-  </si>
-  <si>
-    <t>6430</t>
-  </si>
-  <si>
-    <t>6797</t>
-  </si>
-  <si>
-    <t>7224</t>
-  </si>
-  <si>
-    <t>7752</t>
-  </si>
-  <si>
-    <t>8362</t>
-  </si>
-  <si>
-    <t>9058</t>
-  </si>
-  <si>
-    <t>9450</t>
-  </si>
-  <si>
-    <t>9654</t>
-  </si>
-  <si>
-    <t>10298</t>
-  </si>
-  <si>
-    <t>10938</t>
-  </si>
-  <si>
-    <t>10710</t>
-  </si>
-  <si>
-    <t>10900</t>
-  </si>
-  <si>
-    <t>11743</t>
-  </si>
-  <si>
-    <t>12718</t>
-  </si>
-  <si>
-    <t>13475</t>
-  </si>
-  <si>
-    <t>14220.0781071</t>
-  </si>
-  <si>
-    <t>14638.2680368</t>
-  </si>
-  <si>
-    <t>15167.152435</t>
-  </si>
-  <si>
-    <t>16383.7571609</t>
-  </si>
-  <si>
-    <t>17572.9861582</t>
-  </si>
-  <si>
-    <t>18310.0810838</t>
-  </si>
-  <si>
-    <t>19159.7096337</t>
-  </si>
-  <si>
-    <t>20231.1155087</t>
-  </si>
-  <si>
-    <t>19286.9628381</t>
-  </si>
-  <si>
-    <t>19983.1327489</t>
-  </si>
-  <si>
-    <t>21263.3111266</t>
-  </si>
-  <si>
-    <t>20482.7580418</t>
-  </si>
-  <si>
-    <t>20786.4178585</t>
-  </si>
-  <si>
-    <t>21196.7876974</t>
-  </si>
-  <si>
-    <t>22584.6922012</t>
-  </si>
-  <si>
-    <t>23683.2322276</t>
-  </si>
-  <si>
-    <t>25169.5279152</t>
-  </si>
-  <si>
-    <t>26783.0656668</t>
-  </si>
-  <si>
-    <t>26638.2151498</t>
-  </si>
-  <si>
-    <t>25825.7372069</t>
-  </si>
-  <si>
-    <t>29037.561453</t>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>2884</t>
+  </si>
+  <si>
+    <t>2952</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2361</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>3263</t>
+  </si>
+  <si>
+    <t>3676</t>
+  </si>
+  <si>
+    <t>3652</t>
+  </si>
+  <si>
+    <t>3967</t>
+  </si>
+  <si>
+    <t>3363</t>
+  </si>
+  <si>
+    <t>3912</t>
+  </si>
+  <si>
+    <t>3572</t>
+  </si>
+  <si>
+    <t>3368</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>3202</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>2874</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>3239</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>3775</t>
+  </si>
+  <si>
+    <t>4049</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3991</t>
+  </si>
+  <si>
+    <t>4317</t>
+  </si>
+  <si>
+    <t>4741</t>
+  </si>
+  <si>
+    <t>5294</t>
+  </si>
+  <si>
+    <t>5931</t>
+  </si>
+  <si>
+    <t>6650</t>
+  </si>
+  <si>
+    <t>7318</t>
+  </si>
+  <si>
+    <t>8155</t>
+  </si>
+  <si>
+    <t>8894</t>
+  </si>
+  <si>
+    <t>9314</t>
+  </si>
+  <si>
+    <t>9602</t>
+  </si>
+  <si>
+    <t>10178</t>
+  </si>
+  <si>
+    <t>10790</t>
+  </si>
+  <si>
+    <t>11588</t>
+  </si>
+  <si>
+    <t>12521</t>
+  </si>
+  <si>
+    <t>13601</t>
+  </si>
+  <si>
+    <t>14335</t>
+  </si>
+  <si>
+    <t>14687</t>
+  </si>
+  <si>
+    <t>15720</t>
+  </si>
+  <si>
+    <t>16767</t>
+  </si>
+  <si>
+    <t>16611</t>
+  </si>
+  <si>
+    <t>16831</t>
+  </si>
+  <si>
+    <t>18345</t>
+  </si>
+  <si>
+    <t>19853</t>
+  </si>
+  <si>
+    <t>21221</t>
+  </si>
+  <si>
+    <t>22666</t>
+  </si>
+  <si>
+    <t>23636.6826875653</t>
+  </si>
+  <si>
+    <t>24775.5711919494</t>
+  </si>
+  <si>
+    <t>27073.714552744</t>
+  </si>
+  <si>
+    <t>29454.6124611513</t>
+  </si>
+  <si>
+    <t>30957.2871651082</t>
+  </si>
+  <si>
+    <t>32724.4875328756</t>
+  </si>
+  <si>
+    <t>34868.0659692042</t>
+  </si>
+  <si>
+    <t>33590.4819258856</t>
+  </si>
+  <si>
+    <t>35156.1182739866</t>
+  </si>
+  <si>
+    <t>37772.7596926971</t>
+  </si>
+  <si>
+    <t>36864.5751243973</t>
+  </si>
+  <si>
+    <t>37829.9043369914</t>
+  </si>
+  <si>
+    <t>38950.7459376796</t>
+  </si>
+  <si>
+    <t>42111.1662234909</t>
+  </si>
+  <si>
+    <t>44698.8385991564</t>
+  </si>
+  <si>
+    <t>48073.5880877817</t>
+  </si>
+  <si>
+    <t>51844.0617998722</t>
+  </si>
+  <si>
+    <t>52180.1731759185</t>
+  </si>
+  <si>
+    <t>51344.4780400612</t>
+  </si>
+  <si>
+    <t>58612.7310490197</t>
+  </si>
+  <si>
+    <t>61672</t>
+  </si>
+  <si>
+    <t>62783</t>
+  </si>
+  <si>
+    <t>64633</t>
+  </si>
+  <si>
+    <t>65655</t>
+  </si>
+  <si>
+    <t>65660</t>
+  </si>
+  <si>
+    <t>65729</t>
   </si>
   <si>
     <t>Description</t>
@@ -1205,7 +1223,7 @@
         <v>1914.0</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2838,6 +2856,108 @@
       </c>
       <c r="E142" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2855,50 +2975,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
